--- a/dist/exports/students.xlsx
+++ b/dist/exports/students.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -79,124 +79,280 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>2025-03-01</t>
-  </si>
-  <si>
-    <t>Khác</t>
-  </si>
-  <si>
-    <t>Cử nhân</t>
-  </si>
-  <si>
-    <t>22120001@student.hcmus.edu.vn</t>
-  </si>
-  <si>
-    <t>+84987111222</t>
-  </si>
-  <si>
-    <t>Việt Nam</t>
-  </si>
-  <si>
-    <t>SInh học</t>
-  </si>
-  <si>
-    <t>K21</t>
-  </si>
-  <si>
-    <t>Đang học</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, , , , , </t>
-  </si>
-  <si>
-    <t>1, 2, 34, 5, 7, 8</t>
-  </si>
-  <si>
-    <t>9, 4, 1, 2, 4, 5</t>
+    <t>Pham Van Hoang</t>
+  </si>
+  <si>
+    <t>2001-01-01</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>CE2025</t>
+  </si>
+  <si>
+    <t>hoang.pv@example.com</t>
+  </si>
+  <si>
+    <t>0912345678</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Kỹ thuật máy tính</t>
+  </si>
+  <si>
+    <t>12, Nguyen Van Cu, Ward 5, District 5, HCMC, Vietnam</t>
+  </si>
+  <si>
+    <t>CCCD</t>
+  </si>
+  <si>
+    <t>987654321000</t>
+  </si>
+  <si>
+    <t>2016-05-10</t>
+  </si>
+  <si>
+    <t>2036-05-10</t>
+  </si>
+  <si>
+    <t>Hanoi</t>
+  </si>
+  <si>
+    <t>Có</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tran Thi Mai</t>
+  </si>
+  <si>
+    <t>2000-12-12</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>IT2025</t>
+  </si>
+  <si>
+    <t>mai.tt@example.com</t>
+  </si>
+  <si>
+    <t>0923456789</t>
+  </si>
+  <si>
+    <t>Information System</t>
+  </si>
+  <si>
+    <t>Công nghệ thông tin</t>
+  </si>
+  <si>
+    <t>43, Tran Phu, Ward 6, District 10, HCMC, Vietnam</t>
   </si>
   <si>
     <t>Passport</t>
   </si>
   <si>
-    <t>00112233</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Hoa Kỳ</t>
+    <t>PA1234567</t>
+  </si>
+  <si>
+    <t>2018-01-15</t>
+  </si>
+  <si>
+    <t>2028-01-15</t>
+  </si>
+  <si>
+    <t>HCMC</t>
   </si>
   <si>
     <t>Không</t>
   </si>
   <si>
-    <t>Hộ chiếu lưu trú</t>
-  </si>
-  <si>
-    <t>2025-03-09</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>dangdiennguyen2112@gmail.com</t>
-  </si>
-  <si>
-    <t>0375375375</t>
-  </si>
-  <si>
-    <t>VN</t>
-  </si>
-  <si>
-    <t>CNTT</t>
-  </si>
-  <si>
-    <t>K25</t>
-  </si>
-  <si>
-    <t>Nghỉ học</t>
-  </si>
-  <si>
-    <t>1, null, 3, 4, 5, 61</t>
-  </si>
-  <si>
-    <t>1, null, 4, 5, 6, 87</t>
-  </si>
-  <si>
-    <t>1, null, 7, i9, 7, 6</t>
-  </si>
-  <si>
-    <t>CMND</t>
-  </si>
-  <si>
-    <t>204242425645</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Nguyễn Văn B</t>
-  </si>
-  <si>
-    <t>dangdiennguyen112@gmail.com</t>
-  </si>
-  <si>
-    <t>772567121</t>
+    <t>Nguyen Van Duy</t>
+  </si>
+  <si>
+    <t>2002-02-02</t>
+  </si>
+  <si>
+    <t>CS2025</t>
+  </si>
+  <si>
+    <t>duy.nv@example.com</t>
+  </si>
+  <si>
+    <t>0934567890</t>
+  </si>
+  <si>
+    <t>Cyber Security</t>
+  </si>
+  <si>
+    <t>An ninh mạng</t>
+  </si>
+  <si>
+    <t>78, Hoang Van Thu, Ward 2, District 3, HCMC, Vietnam</t>
+  </si>
+  <si>
+    <t>876543210999</t>
+  </si>
+  <si>
+    <t>2017-08-12</t>
+  </si>
+  <si>
+    <t>2037-08-12</t>
+  </si>
+  <si>
+    <t>Da Nang</t>
+  </si>
+  <si>
+    <t>Le Thi Linh</t>
+  </si>
+  <si>
+    <t>1999-03-03</t>
+  </si>
+  <si>
+    <t>AI2025</t>
+  </si>
+  <si>
+    <t>linh.lt@example.com</t>
+  </si>
+  <si>
+    <t>0945678901</t>
+  </si>
+  <si>
+    <t>AI Department</t>
+  </si>
+  <si>
+    <t>Trí tuệ nhân tạo</t>
+  </si>
+  <si>
+    <t>90, Pham Van Dong, Ward 3, District 7, HCMC, Vietnam</t>
+  </si>
+  <si>
+    <t>PB2345678</t>
+  </si>
+  <si>
+    <t>2019-03-22</t>
+  </si>
+  <si>
+    <t>2029-03-22</t>
+  </si>
+  <si>
+    <t>Hoang Van Phuc</t>
+  </si>
+  <si>
+    <t>2003-04-04</t>
+  </si>
+  <si>
+    <t>BA2025</t>
+  </si>
+  <si>
+    <t>phuc.hv@example.com</t>
+  </si>
+  <si>
+    <t>0956789012</t>
+  </si>
+  <si>
+    <t>Business Faculty</t>
+  </si>
+  <si>
+    <t>Phân tích kinh doanh</t>
+  </si>
+  <si>
+    <t>55, Le Duan, Ward 1, District 1, HCMC, Vietnam</t>
+  </si>
+  <si>
+    <t>765432109888</t>
+  </si>
+  <si>
+    <t>2018-07-10</t>
+  </si>
+  <si>
+    <t>2038-07-10</t>
+  </si>
+  <si>
+    <t>Hue</t>
+  </si>
+  <si>
+    <t>Dang Thi Hue</t>
+  </si>
+  <si>
+    <t>2001-05-05</t>
+  </si>
+  <si>
+    <t>ECO2025</t>
+  </si>
+  <si>
+    <t>hue.dt@example.com</t>
+  </si>
+  <si>
+    <t>0967890123</t>
+  </si>
+  <si>
+    <t>Kinh tế học</t>
+  </si>
+  <si>
+    <t>66, Ly Thuong Kiet, Ward 4, District 11, HCMC, Vietnam</t>
+  </si>
+  <si>
+    <t>654321098777</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>2040-10-01</t>
+  </si>
+  <si>
+    <t>Can Tho</t>
+  </si>
+  <si>
+    <t>Bui Van Khanh</t>
+  </si>
+  <si>
+    <t>2000-06-06</t>
+  </si>
+  <si>
+    <t>khanh.bv@example.com</t>
+  </si>
+  <si>
+    <t>0978901234</t>
+  </si>
+  <si>
+    <t>PC3456789</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>2030-06-20</t>
+  </si>
+  <si>
+    <t>Vo Thi Trang</t>
+  </si>
+  <si>
+    <t>1998-07-07</t>
+  </si>
+  <si>
+    <t>trang.vt@example.com</t>
+  </si>
+  <si>
+    <t>0989012345</t>
+  </si>
+  <si>
+    <t>543210987666</t>
+  </si>
+  <si>
+    <t>2021-04-15</t>
+  </si>
+  <si>
+    <t>2041-04-15</t>
   </si>
 </sst>
 </file>
@@ -573,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -694,177 +850,493 @@
       <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>35</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" t="s">
         <v>37</v>
       </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>38</v>
-      </c>
-      <c r="T2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
         <v>45</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>46</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
         <v>48</v>
       </c>
-      <c r="K3" t="s">
+      <c r="P3" t="s">
         <v>49</v>
       </c>
-      <c r="L3" t="s">
+      <c r="Q3" t="s">
         <v>50</v>
       </c>
-      <c r="M3" t="s">
+      <c r="R3" t="s">
         <v>51</v>
       </c>
-      <c r="N3" t="s">
+      <c r="S3" t="s">
         <v>52</v>
       </c>
-      <c r="O3" t="s">
+      <c r="T3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" t="s">
         <v>53</v>
       </c>
-      <c r="P3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" t="s">
-        <v>40</v>
-      </c>
       <c r="V3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
         <v>59</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>97</v>
+      </c>
+      <c r="R7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S7" t="s">
+        <v>99</v>
+      </c>
+      <c r="T7" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
         <v>45</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J8" t="s">
         <v>46</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" t="s">
         <v>47</v>
       </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>105</v>
+      </c>
+      <c r="R8" t="s">
+        <v>106</v>
+      </c>
+      <c r="S8" t="s">
         <v>52</v>
       </c>
-      <c r="O4" t="s">
+      <c r="T8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" t="s">
         <v>53</v>
       </c>
-      <c r="P4" t="s">
+      <c r="V8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" t="s">
         <v>61</v>
       </c>
-      <c r="Q4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R4" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" t="s">
-        <v>58</v>
-      </c>
-      <c r="U4" t="s">
-        <v>40</v>
-      </c>
-      <c r="V4" t="s">
-        <v>58</v>
+      <c r="M9" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" t="s">
+        <v>113</v>
+      </c>
+      <c r="S9" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
